--- a/Vocabularies/AZ/az-deq-get.xlsx
+++ b/Vocabularies/AZ/az-deq-get.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74DA0F-513D-4D83-B9EB-B2365C40C9CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7469AC0-926B-CD41-9806-463F76885CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30960" windowHeight="16920" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -3691,20 +3691,20 @@
   <dimension ref="A1:I456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C370" sqref="C370"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="2" customWidth="1"/>
-    <col min="4" max="9" width="19.5703125" customWidth="1"/>
+    <col min="4" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1082</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>638</v>
       </c>
@@ -3777,10 +3777,10 @@
         <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>640</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>642</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>649</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>650</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>652</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>877</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>878</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>879</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>658</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>659</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>660</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>661</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>664</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>665</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>666</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1072</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>669</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>670</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>671</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>676</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1041</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1042</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1043</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>677</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>681</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>682</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1075</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>683</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>880</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>687</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>688</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>881</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>891</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>875</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>876</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>696</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>697</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>699</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>700</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>701</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>702</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>703</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>111</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>112</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>113</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>622</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>623</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>624</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>114</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>625</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1049</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1050</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>115</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>626</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>116</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>117</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>118</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>882</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>119</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>120</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>121</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>629</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>628</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>122</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>123</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>636</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>883</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>704</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>124</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>125</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>705</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>706</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>707</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>126</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>128</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>710</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>129</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>711</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>130</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>131</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>132</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>133</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>134</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>135</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>136</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>713</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>137</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>138</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1051</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>715</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>140</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>142</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>723</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>884</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>724</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>725</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>726</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>727</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>143</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>729</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>885</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>146</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1083</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>147</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>148</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>730</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>149</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>731</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1052</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>150</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>151</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>152</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>154</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>155</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>156</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>157</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>738</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>158</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>739</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>159</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>740</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>160</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>741</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>742</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>743</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>161</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>162</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>746</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>163</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>164</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>165</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>166</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>747</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>750</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>167</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>751</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>168</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>753</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>754</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>169</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>170</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1077</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>171</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>755</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>172</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>173</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>174</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>175</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>176</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>177</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>178</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>176</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>179</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>180</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>181</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>757</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>182</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>758</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>183</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>184</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>759</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>185</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>186</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>188</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>189</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>190</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>761</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>191</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>192</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>829</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>831</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>886</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1078</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>830</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>193</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>832</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>194</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>833</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>834</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>195</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>196</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>835</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>836</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>197</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>824</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>198</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>837</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>825</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>887</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>838</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>839</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>840</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>841</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>199</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>200</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>201</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>202</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>203</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>620</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>204</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>205</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>206</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1058</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>888</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>889</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>207</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>842</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>208</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>843</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>209</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>210</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>211</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1059</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>212</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>213</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>892</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>214</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>215</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>216</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>217</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>218</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>219</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>220</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>221</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>222</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>223</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>224</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>225</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>844</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>845</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>847</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1061</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>226</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>227</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>228</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>229</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>826</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>230</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>231</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>232</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>233</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1062</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>234</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>235</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>236</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>237</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>848</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>849</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>238</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>850</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>239</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>851</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>240</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1063</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>241</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1064</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>893</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>242</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>852</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>243</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1065</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1066</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>244</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>245</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>246</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>827</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>247</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>248</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1067</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>249</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>250</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>251</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>853</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>854</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>252</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>253</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>254</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>255</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1068</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>855</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>256</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>257</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>258</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>259</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>260</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>261</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>262</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>856</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1084</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>264</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>265</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>894</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>266</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>857</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>858</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>267</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>268</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>269</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>270</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>271</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>272</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>273</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>274</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>275</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>276</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>277</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>278</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>279</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>280</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>281</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>282</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>859</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>283</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1080</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>284</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>285</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>286</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>287</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>288</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>289</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>860</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>290</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>291</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>292</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>861</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>293</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>862</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>863</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>294</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>864</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>865</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>295</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>296</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>866</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>297</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>298</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>828</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>299</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>300</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1070</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>867</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>301</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>868</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>869</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>302</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>303</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>304</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>305</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>306</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>307</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>308</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>309</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>310</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>311</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>870</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>312</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>313</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>871</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>314</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>315</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>316</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1081</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>872</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>873</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>317</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>318</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>319</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>874</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>320</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>321</v>
       </c>
@@ -9702,22 +9702,22 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>25</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>21</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>32</v>
       </c>
